--- a/tmp/Model Tuning.xlsx
+++ b/tmp/Model Tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5602CF5F-BB72-40CD-94C7-8077FBF905C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1E2453-D0F3-4815-812F-B8A3E583117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17F4CDA2-B093-4A4B-98F4-B8A36F5A5FC9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{17F4CDA2-B093-4A4B-98F4-B8A36F5A5FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>Machine Learning Model Performance</t>
   </si>
@@ -315,6 +315,18 @@
   </si>
   <si>
     <t>C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 27\DDPG Training_Avg Error vs Time_Trial 1.png</t>
+  </si>
+  <si>
+    <t>New sinuisodal data using new Fred hardware</t>
+  </si>
+  <si>
+    <t>C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 27\RPM and Predicted RPMs_Trial 2.png</t>
+  </si>
+  <si>
+    <t>C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 27\DDPG Training_Avg Error vs Time_Trial 2.png</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
   </si>
 </sst>
 </file>
@@ -722,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379B8E59-C7FE-4C75-81DB-E5142DDE989B}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2355,6 +2367,20 @@
         <v>89</v>
       </c>
     </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+    </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>27</v>
@@ -2381,7 +2407,8 @@
         <v>600</v>
       </c>
       <c r="I51" s="4">
-        <v>5500</v>
+        <f>7000*3</f>
+        <v>21000</v>
       </c>
       <c r="J51" s="4">
         <v>10</v>
@@ -2428,20 +2455,65 @@
         <v>600</v>
       </c>
       <c r="I52" s="4">
-        <v>5500</v>
+        <f>15000*3</f>
+        <v>45000</v>
       </c>
       <c r="J52" s="4">
         <v>10</v>
       </c>
       <c r="K52" s="4">
-        <v>78.3</v>
+        <v>187.4</v>
       </c>
       <c r="L52" t="s">
         <v>70</v>
       </c>
+      <c r="M52" s="1">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>27</v>
+      </c>
+      <c r="B53" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F53" s="4">
+        <v>120</v>
+      </c>
+      <c r="G53" s="6">
+        <v>800</v>
+      </c>
+      <c r="H53" s="6">
+        <v>600</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4">
+        <v>10</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B50:K50"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="B46:K46"/>
     <mergeCell ref="B48:K48"/>
@@ -2506,8 +2578,10 @@
     <hyperlink ref="O36" r:id="rId46" display="C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 4\DDPG Training_Avg Error vs Time .png" xr:uid="{1F21DF3F-186D-41F0-A306-04F958AE913F}"/>
     <hyperlink ref="N51" r:id="rId47" xr:uid="{9C9D1F4E-C3B1-4985-A34E-57D508C33332}"/>
     <hyperlink ref="O51" r:id="rId48" xr:uid="{46C322F7-1CF4-4C92-A46D-40D9C21E82B1}"/>
+    <hyperlink ref="N52" r:id="rId49" xr:uid="{5BFE0B80-FE00-4FBB-97ED-07002110A175}"/>
+    <hyperlink ref="O52" r:id="rId50" xr:uid="{C63E30BF-D383-4064-9002-181D9A43E971}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
--- a/tmp/Model Tuning.xlsx
+++ b/tmp/Model Tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1E2453-D0F3-4815-812F-B8A3E583117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED02335-932D-4274-AA97-F0921B3E828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{17F4CDA2-B093-4A4B-98F4-B8A36F5A5FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17F4CDA2-B093-4A4B-98F4-B8A36F5A5FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>Machine Learning Model Performance</t>
   </si>
@@ -327,6 +327,21 @@
   </si>
   <si>
     <t>Trial 3</t>
+  </si>
+  <si>
+    <t>C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 27\RPM and Predicted RPMs_Trial 3.png</t>
+  </si>
+  <si>
+    <t>C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 27\DDPG Training_Avg Error vs Time_Trial 3.png</t>
+  </si>
+  <si>
+    <t>Retraining on Sinusoidal data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might delete </t>
+  </si>
+  <si>
+    <t>Trial 4</t>
   </si>
 </sst>
 </file>
@@ -734,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379B8E59-C7FE-4C75-81DB-E5142DDE989B}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,6 +766,7 @@
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.88671875" customWidth="1"/>
     <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.88671875" bestFit="1" customWidth="1"/>
@@ -2502,17 +2518,172 @@
       <c r="H53" s="6">
         <v>600</v>
       </c>
-      <c r="I53" s="4"/>
+      <c r="I53" s="4">
+        <v>60000</v>
+      </c>
       <c r="J53" s="4">
         <v>10</v>
       </c>
-      <c r="K53" s="4"/>
+      <c r="K53" s="4">
+        <v>243.1</v>
+      </c>
       <c r="L53" t="s">
         <v>96</v>
       </c>
+      <c r="N53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F55" s="4">
+        <v>120</v>
+      </c>
+      <c r="G55" s="6">
+        <v>800</v>
+      </c>
+      <c r="H55" s="6">
+        <v>600</v>
+      </c>
+      <c r="I55" s="4">
+        <v>10000</v>
+      </c>
+      <c r="J55" s="4">
+        <v>5</v>
+      </c>
+      <c r="K55" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="L55" t="s">
+        <v>100</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F56" s="4">
+        <v>120</v>
+      </c>
+      <c r="G56" s="6">
+        <v>800</v>
+      </c>
+      <c r="H56" s="6">
+        <v>600</v>
+      </c>
+      <c r="I56" s="4">
+        <v>60000</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>101</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.1069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>27</v>
+      </c>
+      <c r="B58" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F58" s="4">
+        <v>120</v>
+      </c>
+      <c r="G58" s="6">
+        <v>800</v>
+      </c>
+      <c r="H58" s="6">
+        <v>600</v>
+      </c>
+      <c r="I58" s="4">
+        <v>60000</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1</v>
+      </c>
+      <c r="K58" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B57:K57"/>
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="B46:K46"/>
@@ -2580,8 +2751,10 @@
     <hyperlink ref="O51" r:id="rId48" xr:uid="{46C322F7-1CF4-4C92-A46D-40D9C21E82B1}"/>
     <hyperlink ref="N52" r:id="rId49" xr:uid="{5BFE0B80-FE00-4FBB-97ED-07002110A175}"/>
     <hyperlink ref="O52" r:id="rId50" xr:uid="{C63E30BF-D383-4064-9002-181D9A43E971}"/>
+    <hyperlink ref="N53" r:id="rId51" display="C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 27\RPM and Predicted RPMs_Trial 2.png" xr:uid="{78A26FC1-ACA8-44B0-850B-97B1368948C8}"/>
+    <hyperlink ref="O53" r:id="rId52" display="C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 27\DDPG Training_Avg Error vs Time_Trial 2.png" xr:uid="{06DE4295-64CC-4EEF-9214-959EA96487B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
--- a/tmp/Model Tuning.xlsx
+++ b/tmp/Model Tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED02335-932D-4274-AA97-F0921B3E828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A311D2-EAD4-4221-8D38-5B59B192A2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17F4CDA2-B093-4A4B-98F4-B8A36F5A5FC9}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{17F4CDA2-B093-4A4B-98F4-B8A36F5A5FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>Machine Learning Model Performance</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>Trial 4</t>
+  </si>
+  <si>
+    <t>C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 28\RPM and Predicted RPMs.png</t>
+  </si>
+  <si>
+    <t>C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 28\RPM and Predicted RPMs_Test on Random Step Data.png</t>
   </si>
 </sst>
 </file>
@@ -418,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -434,6 +440,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -453,9 +463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,7 +503,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -599,7 +609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -741,7 +751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379B8E59-C7FE-4C75-81DB-E5142DDE989B}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2680,19 +2690,132 @@
       </c>
       <c r="K58" s="4"/>
     </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>28</v>
+      </c>
+      <c r="B60" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F60" s="4">
+        <v>120</v>
+      </c>
+      <c r="G60" s="6">
+        <v>800</v>
+      </c>
+      <c r="H60" s="6">
+        <v>600</v>
+      </c>
+      <c r="I60" s="4">
+        <f>40000*3</f>
+        <v>120000</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1</v>
+      </c>
+      <c r="K60" s="4">
+        <v>43</v>
+      </c>
+      <c r="M60" s="12">
+        <v>0.1007</v>
+      </c>
+      <c r="N60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F62" s="4">
+        <v>120</v>
+      </c>
+      <c r="G62" s="6">
+        <v>800</v>
+      </c>
+      <c r="H62" s="6">
+        <v>600</v>
+      </c>
+      <c r="I62" s="4">
+        <v>60000</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
+        <v>5</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.1043</v>
+      </c>
+      <c r="N62" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="B59:K59"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B21:K21"/>
     <mergeCell ref="B54:K54"/>
     <mergeCell ref="B57:K57"/>
     <mergeCell ref="B50:K50"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="B46:K46"/>
     <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B21:K21"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="B40:K40"/>
     <mergeCell ref="B42:K42"/>

--- a/tmp/Model Tuning.xlsx
+++ b/tmp/Model Tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A311D2-EAD4-4221-8D38-5B59B192A2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A2C433-CC57-4196-A8F2-861DDEEA4C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{17F4CDA2-B093-4A4B-98F4-B8A36F5A5FC9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{17F4CDA2-B093-4A4B-98F4-B8A36F5A5FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>Machine Learning Model Performance</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>C:\Users\keegh\Documents\Orbtronics_Agri_Sensor\DRL_Test_Algorithms\tmp\Model 28\RPM and Predicted RPMs_Test on Random Step Data.png</t>
+  </si>
+  <si>
+    <t>Training on Random Step data</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -440,10 +443,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379B8E59-C7FE-4C75-81DB-E5142DDE989B}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="I43" workbookViewId="0">
+      <selection activeCell="N64" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2691,18 +2690,18 @@
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
@@ -2739,7 +2738,7 @@
       <c r="K60" s="4">
         <v>43</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="1">
         <v>0.1007</v>
       </c>
       <c r="N60" t="s">
@@ -2801,8 +2800,54 @@
         <v>103</v>
       </c>
     </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>29</v>
+      </c>
+      <c r="B64" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F64" s="4">
+        <v>120</v>
+      </c>
+      <c r="G64" s="6">
+        <v>800</v>
+      </c>
+      <c r="H64" s="6">
+        <v>600</v>
+      </c>
+      <c r="I64" s="4">
+        <v>60000</v>
+      </c>
+      <c r="J64" s="4">
+        <v>3</v>
+      </c>
+      <c r="K64" s="4">
+        <v>40</v>
+      </c>
+      <c r="M64" s="1">
+        <v>9.2200000000000004E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B29:K29"/>
     <mergeCell ref="B59:K59"/>
     <mergeCell ref="B61:K61"/>
     <mergeCell ref="B1:M1"/>
@@ -2819,9 +2864,6 @@
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="B40:K40"/>
     <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{61EF0AD1-F529-4E4E-9434-D62C49FF4068}"/>
